--- a/Datasets/BaselOP.xlsx
+++ b/Datasets/BaselOP.xlsx
@@ -109,7 +109,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14996795556505021"/>
+        <fgColor rgb="FF818EEC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -167,6 +167,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF818EEC"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -466,14 +471,17 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
+      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="14.7109375" customWidth="1"/>
-    <col min="3" max="4" width="22.7109375" customWidth="1"/>
-    <col min="5" max="6" width="29.7109375" customWidth="1"/>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" customWidth="1"/>
+    <col min="3" max="3" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.25">
